--- a/applications/Unity/Assets/Devarc/ExcelData/TestSchema.xlsx
+++ b/applications/Unity/Assets/Devarc/ExcelData/TestSchema.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>unit_type</t>
   </si>
@@ -256,7 +256,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>"\;,./&lt;&gt;</t>
+    <t>'"\;,./&lt;&gt;</t>
+  </si>
+  <si>
+    <t>specialCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fstr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"str":"12"}]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1198,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1224,7 @@
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,8 +1246,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1258,8 +1272,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -1273,12 +1290,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1298,21 +1315,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>81</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1378,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1389,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>

--- a/applications/Unity/Assets/Devarc/ExcelData/TestSchema.xlsx
+++ b/applications/Unity/Assets/Devarc/ExcelData/TestSchema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="345" windowWidth="19815" windowHeight="11175" tabRatio="730"/>
+    <workbookView xWindow="1350" yWindow="345" windowWidth="19815" windowHeight="11175" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DataCharacter" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="VECTOR3" sheetId="4" r:id="rId4"/>
     <sheet name="!UNIT" sheetId="5" r:id="rId5"/>
     <sheet name="!DIRECTION" sheetId="6" r:id="rId6"/>
+    <sheet name="!MESSAGE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>unit_type</t>
   </si>
@@ -268,6 +269,34 @@
   </si>
   <si>
     <t>[{"str":"12"}]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UNKNOWN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 오류</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1211,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1899,4 +1928,73 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/applications/Unity/Assets/Devarc/ExcelData/TestSchema.xlsx
+++ b/applications/Unity/Assets/Devarc/ExcelData/TestSchema.xlsx
@@ -11,9 +11,9 @@
     <sheet name="DataAbility" sheetId="2" r:id="rId2"/>
     <sheet name="DataPlayer" sheetId="3" r:id="rId3"/>
     <sheet name="VECTOR3" sheetId="4" r:id="rId4"/>
-    <sheet name="!UNIT" sheetId="5" r:id="rId5"/>
-    <sheet name="!DIRECTION" sheetId="6" r:id="rId6"/>
-    <sheet name="!MESSAGE" sheetId="7" r:id="rId7"/>
+    <sheet name="!DIRECTION" sheetId="6" r:id="rId5"/>
+    <sheet name="!MESSAGE" sheetId="7" r:id="rId6"/>
+    <sheet name="!UNIT" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
@@ -1636,191 +1636,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1930,11 +1745,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1997,4 +1812,189 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>